--- a/src/main/resources/157-black-shop/black-shop-common-data_structure.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-common-data_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="97">
   <si>
     <t>类名</t>
   </si>
@@ -61,7 +61,7 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>lambda$cacheManager$0(org.springframework.data.redis.cache.RedisCacheConfiguration)</t>
+    <t>lambda$cacheManager$0(java.util.Map,org.springframework.data.redis.cache.RedisCacheConfiguration,java.lang.String)</t>
   </si>
   <si>
     <t>private</t>
@@ -94,7 +94,7 @@
     <t>notify()</t>
   </si>
   <si>
-    <t>cacheManager(org.springframework.data.redis.connection.RedisConnectionFactory)</t>
+    <t>cacheManager(org.springframework.data.redis.connection.RedisConnectionFactory,org.springframework.core.io.ResourceLoader)</t>
   </si>
   <si>
     <t>org.springframework.data.redis.cache.RedisCacheManager</t>
@@ -124,7 +124,7 @@
     <t>cn.blackshop.common.data.cache.RedisAutoCacheManager</t>
   </si>
   <si>
-    <t>createRedisCache(org.springframework.data.redis.cache.RedisCacheConfiguration)</t>
+    <t>createRedisCache(java.lang.String,org.springframework.data.redis.cache.RedisCacheConfiguration)</t>
   </si>
   <si>
     <t>org.springframework.data.redis.cache.RedisCache</t>
@@ -133,10 +133,10 @@
     <t>cn.blackshop.common.data.cache.DefaultRedisCacheWriter</t>
   </si>
   <si>
-    <t>lambda$unlock$6(org.springframework.data.redis.connection.RedisConnection)</t>
-  </si>
-  <si>
-    <t>lambda$put$0(org.springframework.data.redis.connection.RedisConnection)</t>
+    <t>lambda$unlock$6(java.lang.String,org.springframework.data.redis.connection.RedisConnection)</t>
+  </si>
+  <si>
+    <t>lambda$put$0(java.time.Duration,java.lang.Byte[],java.lang.Byte[],org.springframework.data.redis.connection.RedisConnection)</t>
   </si>
   <si>
     <t>shouldExpireWithin(java.time.Duration)</t>
@@ -157,16 +157,16 @@
     <t>putIfAbsent(java.lang.String,java.lang.Byte[],java.lang.Byte[],java.time.Duration)</t>
   </si>
   <si>
-    <t>lambda$lock$5(org.springframework.data.redis.connection.RedisConnection)</t>
-  </si>
-  <si>
-    <t>lambda$clean$4(org.springframework.data.redis.connection.RedisConnection)</t>
+    <t>lambda$lock$5(java.lang.String,org.springframework.data.redis.connection.RedisConnection)</t>
+  </si>
+  <si>
+    <t>lambda$clean$4(java.lang.String,java.lang.Byte[],org.springframework.data.redis.connection.RedisConnection)</t>
   </si>
   <si>
     <t>put(java.lang.String,java.lang.Byte[],java.lang.Byte[],java.time.Duration)</t>
   </si>
   <si>
-    <t>lambda$get$1(org.springframework.data.redis.connection.RedisConnection)</t>
+    <t>lambda$get$1(java.lang.Byte[],org.springframework.data.redis.connection.RedisConnection)</t>
   </si>
   <si>
     <t>remove(java.lang.String,java.lang.Byte[])</t>
@@ -175,7 +175,7 @@
     <t>isLockingCacheWriter()</t>
   </si>
   <si>
-    <t>doUnlock(org.springframework.data.redis.connection.RedisConnection)</t>
+    <t>doUnlock(java.lang.String,org.springframework.data.redis.connection.RedisConnection)</t>
   </si>
   <si>
     <t>java.lang.Long</t>
@@ -187,13 +187,13 @@
     <t>executeLockFree(java.util.function.Consumer)</t>
   </si>
   <si>
-    <t>lambda$remove$3(org.springframework.data.redis.connection.RedisConnection)</t>
-  </si>
-  <si>
-    <t>doCheckLock(org.springframework.data.redis.connection.RedisConnection)</t>
-  </si>
-  <si>
-    <t>checkAndPotentiallyWaitUntilUnlocked(org.springframework.data.redis.connection.RedisConnection)</t>
+    <t>lambda$remove$3(java.lang.Byte[],org.springframework.data.redis.connection.RedisConnection)</t>
+  </si>
+  <si>
+    <t>doCheckLock(java.lang.String,org.springframework.data.redis.connection.RedisConnection)</t>
+  </si>
+  <si>
+    <t>checkAndPotentiallyWaitUntilUnlocked(java.lang.String,org.springframework.data.redis.connection.RedisConnection)</t>
   </si>
   <si>
     <t>clean(java.lang.String,java.lang.Byte[])</t>
@@ -205,10 +205,10 @@
     <t>execute(java.lang.String,java.util.function.Function)</t>
   </si>
   <si>
-    <t>doLock(org.springframework.data.redis.connection.RedisConnection)</t>
-  </si>
-  <si>
-    <t>lambda$putIfAbsent$2(org.springframework.data.redis.connection.RedisConnection)</t>
+    <t>doLock(java.lang.String,org.springframework.data.redis.connection.RedisConnection)</t>
+  </si>
+  <si>
+    <t>lambda$putIfAbsent$2(java.lang.String,java.lang.Byte[],java.lang.Byte[],java.time.Duration,org.springframework.data.redis.connection.RedisConnection)</t>
   </si>
   <si>
     <t>cn.blackshop.common.data.cache.RedisTemplateConfig</t>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>4</t>
@@ -1693,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1738,13 +1741,13 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
@@ -1755,13 +1758,13 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
@@ -1772,13 +1775,13 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
@@ -1789,13 +1792,13 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
@@ -1806,16 +1809,16 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1823,13 +1826,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
@@ -1840,16 +1843,16 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -1857,13 +1860,13 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
@@ -1874,16 +1877,16 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -1891,13 +1894,13 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>87</v>
@@ -1908,7 +1911,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1925,13 +1928,13 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -1942,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1959,7 +1962,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1968,7 +1971,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -1976,16 +1979,152 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2003,10 +2142,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
@@ -2039,10 +2178,10 @@
         <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
@@ -2063,16 +2202,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
@@ -2102,7 +2241,7 @@
         <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
@@ -2123,16 +2262,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
